--- a/data/132/INSEE/SERIE/Hourly wage rate indice for labourers - All non-agricultural sectors_historical.xlsx
+++ b/data/132/INSEE/SERIE/Hourly wage rate indice for labourers - All non-agricultural sectors_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hourly wage rate indice for la" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,290 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,287 +366,473 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:93">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:93">
-      <c r="A2" s="1" t="s">
-        <v>92</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>62.30502599653</v>
@@ -1187,7 +1089,7 @@
       <c r="CH2" t="n">
         <v>103.8</v>
       </c>
-      <c r="CI2" t="s"/>
+      <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="n">
         <v>104.9</v>
       </c>

--- a/data/132/INSEE/SERIE/Hourly wage rate indice for labourers - All non-agricultural sectors_historical.xlsx
+++ b/data/132/INSEE/SERIE/Hourly wage rate indice for labourers - All non-agricultural sectors_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO2"/>
+  <dimension ref="A1:CP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +827,11 @@
           <t>2021-Q3</t>
         </is>
       </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1107,6 +1112,9 @@
       </c>
       <c r="CO2" t="n">
         <v>106.8</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>107.3</v>
       </c>
     </row>
   </sheetData>
